--- a/rosters/2023/Indiana/Indiana.xlsx
+++ b/rosters/2023/Indiana/Indiana.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
   <si>
     <t>No.</t>
   </si>
@@ -52,87 +52,90 @@
     <t>Bennedict Mathurin</t>
   </si>
   <si>
+    <t>T.J. McConnell</t>
+  </si>
+  <si>
+    <t>Aaron Nesmith</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
     <t>Jalen Smith</t>
   </si>
   <si>
-    <t>T.J. McConnell</t>
+    <t>Myles Turner</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
   </si>
   <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
-    <t>Aaron Nesmith</t>
-  </si>
-  <si>
-    <t>Myles Turner</t>
-  </si>
-  <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
     <t>Chris Duarte</t>
   </si>
   <si>
-    <t>Terry Taylor</t>
-  </si>
-  <si>
-    <t>Goga Bitadze</t>
-  </si>
-  <si>
-    <t>James Johnson</t>
+    <t>Trevelin Queen (TW)</t>
   </si>
   <si>
     <t>Kendall Brown (TW)</t>
   </si>
   <si>
-    <t>Trevelin Queen (TW)</t>
-  </si>
-  <si>
     <t>Daniel Theis</t>
   </si>
   <si>
+    <t>George Hill</t>
+  </si>
+  <si>
+    <t>Serge Ibaka</t>
+  </si>
+  <si>
+    <t>Jordan Nwora</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
+    <t>F-C</t>
+  </si>
+  <si>
     <t>6-4</t>
   </si>
   <si>
     <t>6-6</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-5</t>
+    <t>6-11</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -142,51 +145,51 @@
     <t>June 19, 2002</t>
   </si>
   <si>
+    <t>March 25, 1992</t>
+  </si>
+  <si>
+    <t>October 16, 1999</t>
+  </si>
+  <si>
+    <t>January 16, 2000</t>
+  </si>
+  <si>
     <t>March 16, 2000</t>
   </si>
   <si>
-    <t>March 25, 1992</t>
+    <t>March 24, 1996</t>
+  </si>
+  <si>
+    <t>June 20, 1998</t>
   </si>
   <si>
     <t>February 29, 2000</t>
   </si>
   <si>
-    <t>January 16, 2000</t>
-  </si>
-  <si>
-    <t>June 20, 1998</t>
-  </si>
-  <si>
-    <t>October 16, 1999</t>
-  </si>
-  <si>
-    <t>March 24, 1996</t>
-  </si>
-  <si>
     <t>January 10, 2002</t>
   </si>
   <si>
     <t>June 13, 1997</t>
   </si>
   <si>
-    <t>September 23, 1999</t>
-  </si>
-  <si>
-    <t>July 20, 1999</t>
-  </si>
-  <si>
-    <t>February 20, 1987</t>
+    <t>February 25, 1997</t>
   </si>
   <si>
     <t>May 11, 2003</t>
   </si>
   <si>
-    <t>February 25, 1997</t>
-  </si>
-  <si>
     <t>April 4, 1992</t>
   </si>
   <si>
+    <t>May 4, 1986</t>
+  </si>
+  <si>
+    <t>September 18, 1989</t>
+  </si>
+  <si>
+    <t>September 9, 1998</t>
+  </si>
+  <si>
     <t>bs</t>
   </si>
   <si>
@@ -196,79 +199,82 @@
     <t>us</t>
   </si>
   <si>
-    <t>ge</t>
-  </si>
-  <si>
     <t>de</t>
   </si>
   <si>
+    <t>cg</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
     <t>Arizona</t>
   </si>
   <si>
+    <t>Duquesne, Arizona</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Florida, Gonzaga</t>
+  </si>
+  <si>
     <t>Maryland</t>
   </si>
   <si>
-    <t>Duquesne, Arizona</t>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
   </si>
   <si>
     <t>Iowa State</t>
   </si>
   <si>
-    <t>Florida, Gonzaga</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>Austin Peay State University</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
+    <t>College of Marin, New Mexico Military Institute, New Mexico State</t>
   </si>
   <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>College of Marin, New Mexico Military Institute, New Mexico State</t>
+    <t>IUPUI</t>
+  </si>
+  <si>
+    <t>Louisville</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hieldbu01.html</t>
@@ -277,49 +283,49 @@
     <t>https://www.basketball-reference.com/players/m/mathube01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mccontj01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/n/nesmiaa01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/n/nembhan01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/smithja04.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mccontj01.html</t>
+    <t>https://www.basketball-reference.com/players/t/turnemy01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/brissos01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/halibty01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/nembhan01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/brissos01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/n/nesmiaa01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/turnemy01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jacksis01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/duartch01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/taylote01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bitadgo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/johnsja01.html</t>
+    <t>https://www.basketball-reference.com/players/q/queentr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/brownke03.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/q/queentr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/t/theisda01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/hillge01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/i/ibakase01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/n/nworajo01.html</t>
   </si>
 </sst>
 </file>
@@ -742,25 +748,25 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -777,25 +783,25 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -803,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -812,25 +818,25 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,34 +844,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -873,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -885,10 +891,10 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>59</v>
@@ -897,10 +903,10 @@
         <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -908,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -917,25 +923,25 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -943,34 +949,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -978,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -987,25 +993,25 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1013,34 +1019,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1057,25 +1063,25 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>206</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1092,25 +1098,25 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>190</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,34 +1124,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1153,31 +1159,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1185,104 +1194,92 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F17">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1293,25 +1290,28 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>86</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Indiana/Indiana.xlsx
+++ b/rosters/2023/Indiana/Indiana.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
   <si>
     <t>No.</t>
   </si>
@@ -79,24 +79,24 @@
     <t>Chris Duarte</t>
   </si>
   <si>
+    <t>James Johnson</t>
+  </si>
+  <si>
     <t>Trevelin Queen (TW)</t>
   </si>
   <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
     <t>Kendall Brown (TW)</t>
   </si>
   <si>
-    <t>Daniel Theis</t>
+    <t>Jordan Nwora</t>
   </si>
   <si>
     <t>George Hill</t>
   </si>
   <si>
-    <t>Serge Ibaka</t>
-  </si>
-  <si>
-    <t>Jordan Nwora</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>F-C</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
@@ -172,24 +169,24 @@
     <t>June 13, 1997</t>
   </si>
   <si>
+    <t>February 20, 1987</t>
+  </si>
+  <si>
     <t>February 25, 1997</t>
   </si>
   <si>
+    <t>April 4, 1992</t>
+  </si>
+  <si>
     <t>May 11, 2003</t>
   </si>
   <si>
-    <t>April 4, 1992</t>
+    <t>September 9, 1998</t>
   </si>
   <si>
     <t>May 4, 1986</t>
   </si>
   <si>
-    <t>September 18, 1989</t>
-  </si>
-  <si>
-    <t>September 9, 1998</t>
-  </si>
-  <si>
     <t>bs</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>de</t>
   </si>
   <si>
-    <t>cg</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -223,15 +217,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
@@ -265,18 +259,21 @@
     <t>Oregon</t>
   </si>
   <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
     <t>College of Marin, New Mexico Military Institute, New Mexico State</t>
   </si>
   <si>
     <t>Baylor</t>
   </si>
   <si>
+    <t>Louisville</t>
+  </si>
+  <si>
     <t>IUPUI</t>
   </si>
   <si>
-    <t>Louisville</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/hieldbu01.html</t>
   </si>
   <si>
@@ -310,22 +307,22 @@
     <t>https://www.basketball-reference.com/players/d/duartch01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/j/johnsja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/q/queentr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/theisda01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brownke03.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/theisda01.html</t>
+    <t>https://www.basketball-reference.com/players/n/nworajo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hillge01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/i/ibakase01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/n/nworajo01.html</t>
   </si>
 </sst>
 </file>
@@ -748,25 +745,25 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -783,25 +780,25 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -818,25 +815,25 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -853,25 +850,25 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>215</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -888,25 +885,25 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -923,25 +920,25 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -958,25 +955,25 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -993,25 +990,25 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>210</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1028,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>185</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1063,25 +1060,25 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>206</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1098,25 +1095,25 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>190</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1124,34 +1121,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1159,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1168,25 +1165,25 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1203,115 +1200,127 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Indiana/Indiana.xlsx
+++ b/rosters/2023/Indiana/Indiana.xlsx
@@ -55,24 +55,24 @@
     <t>T.J. McConnell</t>
   </si>
   <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
-    <t>Andrew Nembhard</t>
+    <t>Myles Turner</t>
   </si>
   <si>
     <t>Jalen Smith</t>
   </si>
   <si>
-    <t>Myles Turner</t>
+    <t>Tyrese Haliburton</t>
   </si>
   <si>
     <t>Oshae Brissett</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
@@ -82,18 +82,18 @@
     <t>James Johnson</t>
   </si>
   <si>
+    <t>Jordan Nwora</t>
+  </si>
+  <si>
+    <t>Daniel Theis</t>
+  </si>
+  <si>
     <t>Trevelin Queen (TW)</t>
   </si>
   <si>
-    <t>Daniel Theis</t>
-  </si>
-  <si>
     <t>Kendall Brown (TW)</t>
   </si>
   <si>
-    <t>Jordan Nwora</t>
-  </si>
-  <si>
     <t>George Hill</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>SG</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>6-11</t>
+  </si>
+  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-11</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
@@ -145,24 +145,24 @@
     <t>March 25, 1992</t>
   </si>
   <si>
+    <t>January 16, 2000</t>
+  </si>
+  <si>
     <t>October 16, 1999</t>
   </si>
   <si>
-    <t>January 16, 2000</t>
+    <t>March 24, 1996</t>
   </si>
   <si>
     <t>March 16, 2000</t>
   </si>
   <si>
-    <t>March 24, 1996</t>
+    <t>February 29, 2000</t>
   </si>
   <si>
     <t>June 20, 1998</t>
   </si>
   <si>
-    <t>February 29, 2000</t>
-  </si>
-  <si>
     <t>January 10, 2002</t>
   </si>
   <si>
@@ -172,18 +172,18 @@
     <t>February 20, 1987</t>
   </si>
   <si>
+    <t>September 9, 1998</t>
+  </si>
+  <si>
+    <t>April 4, 1992</t>
+  </si>
+  <si>
     <t>February 25, 1997</t>
   </si>
   <si>
-    <t>April 4, 1992</t>
-  </si>
-  <si>
     <t>May 11, 2003</t>
   </si>
   <si>
-    <t>September 9, 1998</t>
-  </si>
-  <si>
     <t>May 4, 1986</t>
   </si>
   <si>
@@ -235,24 +235,24 @@
     <t>Duquesne, Arizona</t>
   </si>
   <si>
+    <t>Florida, Gonzaga</t>
+  </si>
+  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Florida, Gonzaga</t>
+    <t>Texas</t>
   </si>
   <si>
     <t>Maryland</t>
   </si>
   <si>
-    <t>Texas</t>
+    <t>Iowa State</t>
   </si>
   <si>
     <t>Syracuse</t>
   </si>
   <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
@@ -262,15 +262,15 @@
     <t>Wake Forest</t>
   </si>
   <si>
+    <t>Louisville</t>
+  </si>
+  <si>
     <t>College of Marin, New Mexico Military Institute, New Mexico State</t>
   </si>
   <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>Louisville</t>
-  </si>
-  <si>
     <t>IUPUI</t>
   </si>
   <si>
@@ -283,24 +283,24 @@
     <t>https://www.basketball-reference.com/players/m/mccontj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/nembhan01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/nesmiaa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/nembhan01.html</t>
+    <t>https://www.basketball-reference.com/players/t/turnemy01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/smithja04.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/turnemy01.html</t>
+    <t>https://www.basketball-reference.com/players/h/halibty01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/brissos01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/halibty01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jacksis01.html</t>
   </si>
   <si>
@@ -310,16 +310,16 @@
     <t>https://www.basketball-reference.com/players/j/johnsja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/nworajo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/theisda01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/q/queentr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/theisda01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/brownke03.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/n/nworajo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hillge01.html</t>
@@ -841,28 +841,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
         <v>73</v>
@@ -876,28 +876,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
         <v>74</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -932,7 +932,7 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
         <v>75</v>
@@ -946,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -958,7 +958,7 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -967,7 +967,7 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
         <v>76</v>
@@ -981,28 +981,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
         <v>77</v>
@@ -1016,28 +1016,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -1057,10 +1057,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>206</v>
@@ -1127,7 +1127,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1156,19 +1156,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F14">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1177,7 +1177,7 @@
         <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
         <v>82</v>
@@ -1197,7 +1197,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
@@ -1223,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1232,10 +1232,10 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -1244,7 +1244,7 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
         <v>83</v>
@@ -1258,19 +1258,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
       <c r="F17">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1279,7 +1279,7 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
         <v>84</v>

--- a/rosters/2023/Indiana/Indiana.xlsx
+++ b/rosters/2023/Indiana/Indiana.xlsx
@@ -67,36 +67,36 @@
     <t>Jalen Smith</t>
   </si>
   <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
     <t>Isaiah Jackson</t>
   </si>
   <si>
     <t>Chris Duarte</t>
   </si>
   <si>
+    <t>Jordan Nwora</t>
+  </si>
+  <si>
     <t>James Johnson</t>
   </si>
   <si>
-    <t>Jordan Nwora</t>
-  </si>
-  <si>
     <t>Daniel Theis</t>
   </si>
   <si>
     <t>Trevelin Queen (TW)</t>
   </si>
   <si>
+    <t>George Hill</t>
+  </si>
+  <si>
     <t>Kendall Brown (TW)</t>
   </si>
   <si>
-    <t>George Hill</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -157,36 +157,36 @@
     <t>March 16, 2000</t>
   </si>
   <si>
+    <t>June 20, 1998</t>
+  </si>
+  <si>
     <t>February 29, 2000</t>
   </si>
   <si>
-    <t>June 20, 1998</t>
-  </si>
-  <si>
     <t>January 10, 2002</t>
   </si>
   <si>
     <t>June 13, 1997</t>
   </si>
   <si>
+    <t>September 9, 1998</t>
+  </si>
+  <si>
     <t>February 20, 1987</t>
   </si>
   <si>
-    <t>September 9, 1998</t>
-  </si>
-  <si>
     <t>April 4, 1992</t>
   </si>
   <si>
     <t>February 25, 1997</t>
   </si>
   <si>
+    <t>May 4, 1986</t>
+  </si>
+  <si>
     <t>May 11, 2003</t>
   </si>
   <si>
-    <t>May 4, 1986</t>
-  </si>
-  <si>
     <t>bs</t>
   </si>
   <si>
@@ -247,33 +247,33 @@
     <t>Maryland</t>
   </si>
   <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
     <t>Iowa State</t>
   </si>
   <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
     <t>Oregon</t>
   </si>
   <si>
+    <t>Louisville</t>
+  </si>
+  <si>
     <t>Wake Forest</t>
   </si>
   <si>
-    <t>Louisville</t>
-  </si>
-  <si>
     <t>College of Marin, New Mexico Military Institute, New Mexico State</t>
   </si>
   <si>
+    <t>IUPUI</t>
+  </si>
+  <si>
     <t>Baylor</t>
   </si>
   <si>
-    <t>IUPUI</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/hieldbu01.html</t>
   </si>
   <si>
@@ -295,34 +295,34 @@
     <t>https://www.basketball-reference.com/players/s/smithja04.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/brissos01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/halibty01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/brissos01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/jacksis01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/duartch01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/nworajo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/johnsja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/nworajo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/t/theisda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/q/queentr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hillge01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/brownke03.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hillge01.html</t>
   </si>
 </sst>
 </file>
@@ -981,28 +981,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
         <v>77</v>
@@ -1016,28 +1016,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -1121,19 +1121,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
@@ -1142,7 +1142,7 @@
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
         <v>81</v>
@@ -1156,19 +1156,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1177,7 +1177,7 @@
         <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
         <v>82</v>
@@ -1258,19 +1258,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1279,7 +1279,7 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
         <v>84</v>
@@ -1293,19 +1293,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -1314,7 +1314,7 @@
         <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J18" t="s">
         <v>85</v>

--- a/rosters/2023/Indiana/Indiana.xlsx
+++ b/rosters/2023/Indiana/Indiana.xlsx
@@ -52,30 +52,30 @@
     <t>Bennedict Mathurin</t>
   </si>
   <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
     <t>T.J. McConnell</t>
   </si>
   <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
     <t>Aaron Nesmith</t>
   </si>
   <si>
+    <t>Jalen Smith</t>
+  </si>
+  <si>
+    <t>Oshae Brissett</t>
+  </si>
+  <si>
+    <t>Isaiah Jackson</t>
+  </si>
+  <si>
     <t>Myles Turner</t>
   </si>
   <si>
-    <t>Jalen Smith</t>
-  </si>
-  <si>
-    <t>Oshae Brissett</t>
-  </si>
-  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Isaiah Jackson</t>
-  </si>
-  <si>
     <t>Chris Duarte</t>
   </si>
   <si>
@@ -85,87 +85,90 @@
     <t>James Johnson</t>
   </si>
   <si>
+    <t>George Hill</t>
+  </si>
+  <si>
     <t>Daniel Theis</t>
   </si>
   <si>
-    <t>Trevelin Queen (TW)</t>
-  </si>
-  <si>
-    <t>George Hill</t>
-  </si>
-  <si>
     <t>Kendall Brown (TW)</t>
   </si>
   <si>
+    <t>Gabe York (TW)</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
+    <t>PF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
     <t>6-6</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-5</t>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>6-7</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>December 17, 1992</t>
   </si>
   <si>
     <t>June 19, 2002</t>
   </si>
   <si>
+    <t>January 16, 2000</t>
+  </si>
+  <si>
     <t>March 25, 1992</t>
   </si>
   <si>
-    <t>January 16, 2000</t>
-  </si>
-  <si>
     <t>October 16, 1999</t>
   </si>
   <si>
+    <t>March 16, 2000</t>
+  </si>
+  <si>
+    <t>June 20, 1998</t>
+  </si>
+  <si>
+    <t>January 10, 2002</t>
+  </si>
+  <si>
     <t>March 24, 1996</t>
   </si>
   <si>
-    <t>March 16, 2000</t>
-  </si>
-  <si>
-    <t>June 20, 1998</t>
-  </si>
-  <si>
     <t>February 29, 2000</t>
   </si>
   <si>
-    <t>January 10, 2002</t>
-  </si>
-  <si>
     <t>June 13, 1997</t>
   </si>
   <si>
@@ -175,18 +178,18 @@
     <t>February 20, 1987</t>
   </si>
   <si>
+    <t>May 4, 1986</t>
+  </si>
+  <si>
     <t>April 4, 1992</t>
   </si>
   <si>
-    <t>February 25, 1997</t>
-  </si>
-  <si>
-    <t>May 4, 1986</t>
-  </si>
-  <si>
     <t>May 11, 2003</t>
   </si>
   <si>
+    <t>August 2, 1993</t>
+  </si>
+  <si>
     <t>bs</t>
   </si>
   <si>
@@ -220,42 +223,42 @@
     <t>13</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
     <t>Arizona</t>
   </si>
   <si>
+    <t>Florida, Gonzaga</t>
+  </si>
+  <si>
     <t>Duquesne, Arizona</t>
   </si>
   <si>
-    <t>Florida, Gonzaga</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
     <t>Iowa State</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>Oregon</t>
   </si>
   <si>
@@ -265,9 +268,6 @@
     <t>Wake Forest</t>
   </si>
   <si>
-    <t>College of Marin, New Mexico Military Institute, New Mexico State</t>
-  </si>
-  <si>
     <t>IUPUI</t>
   </si>
   <si>
@@ -280,30 +280,30 @@
     <t>https://www.basketball-reference.com/players/m/mathube01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/n/nembhan01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mccontj01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/nembhan01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/n/nesmiaa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/smithja04.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/brissos01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jacksis01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/t/turnemy01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/s/smithja04.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/brissos01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/halibty01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/jacksis01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/duartch01.html</t>
   </si>
   <si>
@@ -313,16 +313,16 @@
     <t>https://www.basketball-reference.com/players/j/johnsja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hillge01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/t/theisda01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/q/queentr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hillge01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/brownke03.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/y/yorkga01.html</t>
   </si>
 </sst>
 </file>
@@ -751,16 +751,16 @@
         <v>220</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>86</v>
@@ -786,16 +786,16 @@
         <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>87</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -818,10 +818,10 @@
         <v>34</v>
       </c>
       <c r="F4">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -830,7 +830,7 @@
         <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>88</v>
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -853,19 +853,19 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>89</v>
@@ -885,22 +885,22 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>90</v>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -923,19 +923,19 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>91</v>
@@ -946,31 +946,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
       <c r="F8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>92</v>
@@ -981,31 +981,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>93</v>
@@ -1016,31 +1016,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>94</v>
@@ -1051,31 +1051,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>95</v>
@@ -1101,16 +1101,16 @@
         <v>190</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>96</v>
@@ -1136,16 +1136,16 @@
         <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>97</v>
@@ -1162,25 +1162,25 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>98</v>
@@ -1191,28 +1191,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>99</v>
@@ -1223,31 +1226,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>100</v>
@@ -1258,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -1267,22 +1267,22 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>101</v>
@@ -1293,31 +1293,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>102</v>
